--- a/data/Vragenlijst Rattenmonitor INBO_Complete.xlsx
+++ b/data/Vragenlijst Rattenmonitor INBO_Complete.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michiel_lathouwers\Documents\GitHub\rattus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michiel_lathouwers\Documents\GitHub\rattus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="869">
   <si>
     <t>Ik wil niet dat gegevens rond rattenproblematiek binnen mijn gemeente openlijk beschikbaar zijn</t>
   </si>
@@ -2494,6 +2494,138 @@
   </si>
   <si>
     <t>Jaa</t>
+  </si>
+  <si>
+    <t>2024/09/27 8:44:56 p.m. CET</t>
+  </si>
+  <si>
+    <t>Kurt Bellon</t>
+  </si>
+  <si>
+    <t>Kurt.bellon@londerzeel.be</t>
+  </si>
+  <si>
+    <t>Er wordt enkel een tussenkomst voorzien door de rattenvanger, wanneer de personen al zelf meerdere acties ondernomen heeft. Er wordt advies gegeven  en indien nodig wordt er dan een vangkooi/lokaasdoos geplaatst.</t>
+  </si>
+  <si>
+    <t>De rattenvanger krijgt hiervan een werkbon en hierop worden de genomen acties op ingevuld. Ik vermoed dat dit later op de pc gezet wordt.</t>
+  </si>
+  <si>
+    <t>Geen flauw idee van.</t>
+  </si>
+  <si>
+    <t>2024/10/01 1:11:06 p.m. CET</t>
+  </si>
+  <si>
+    <t>Anne Rasschaert</t>
+  </si>
+  <si>
+    <t>technischedienst@tielt-winge.be</t>
+  </si>
+  <si>
+    <t>Tielt-Winge</t>
+  </si>
+  <si>
+    <t>Ja, maar zonder persoonsgegevens.</t>
+  </si>
+  <si>
+    <t>2024/10/01 2:18:20 p.m. CET</t>
+  </si>
+  <si>
+    <t>Inge Hauspie</t>
+  </si>
+  <si>
+    <t>inge.hauspie@kortenberg.be</t>
+  </si>
+  <si>
+    <t>Kortenberg</t>
+  </si>
+  <si>
+    <t>2024/10/02 1:27:41 p.m. CET</t>
+  </si>
+  <si>
+    <t>Griet Smeesters</t>
+  </si>
+  <si>
+    <t>milieu@zoutleeuw.be</t>
+  </si>
+  <si>
+    <t>Zoutleeuw</t>
+  </si>
+  <si>
+    <t>enkel wisselwerking met de firma waarmee we mee samenwerken</t>
+  </si>
+  <si>
+    <t>enkel wisselwerking met de firma waarmee we samenwerken</t>
+  </si>
+  <si>
+    <t>2024/10/03 2:25:21 p.m. CET</t>
+  </si>
+  <si>
+    <t>Vander Eet Femke</t>
+  </si>
+  <si>
+    <t>femke.vandereet@tienen.be</t>
+  </si>
+  <si>
+    <t>Tienen</t>
+  </si>
+  <si>
+    <t>2024/10/04 11:04:20 a.m. CET</t>
+  </si>
+  <si>
+    <t>Verbieren Gert</t>
+  </si>
+  <si>
+    <t>gert.verbieren@leuven.be</t>
+  </si>
+  <si>
+    <t>leuven</t>
+  </si>
+  <si>
+    <t>enkel informatie verstrekken op privaat domein plaatsen wij geen rodenticiden. melder kan wel rodenticiden komen afhalen bij de stadsdienst</t>
+  </si>
+  <si>
+    <t>2024/10/15 1:12:52 p.m. CET</t>
+  </si>
+  <si>
+    <t>uytterhoeven</t>
+  </si>
+  <si>
+    <t>d.uytterhoeven@woluwe1200.be</t>
+  </si>
+  <si>
+    <t>sint-lambrechts-woluwe</t>
+  </si>
+  <si>
+    <t>2024/10/24 8:21:10 a.m. CET</t>
+  </si>
+  <si>
+    <t>mattheus ronny</t>
+  </si>
+  <si>
+    <t>ronny.mattheus@aarschot.be</t>
+  </si>
+  <si>
+    <t>aarschot</t>
+  </si>
+  <si>
+    <t>preventie</t>
+  </si>
+  <si>
+    <t>2024/10/29 9:11:50 a.m. CET</t>
+  </si>
+  <si>
+    <t>Els Van Hoek</t>
+  </si>
+  <si>
+    <t>els.vanhoek@turnhout.be</t>
+  </si>
+  <si>
+    <t>Stad Turnhout</t>
+  </si>
+  <si>
+    <t>In overleg kunnen bepaalde gegevens doorgegeven worden</t>
   </si>
 </sst>
 </file>
@@ -3300,13 +3432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X149"/>
+  <dimension ref="A1:X158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9366,6 +9501,366 @@
         <v>810</v>
       </c>
     </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>825</v>
+      </c>
+      <c r="B150" t="s">
+        <v>826</v>
+      </c>
+      <c r="C150" t="s">
+        <v>827</v>
+      </c>
+      <c r="D150" t="s">
+        <v>711</v>
+      </c>
+      <c r="E150" t="s">
+        <v>37</v>
+      </c>
+      <c r="H150" t="s">
+        <v>243</v>
+      </c>
+      <c r="M150" t="s">
+        <v>828</v>
+      </c>
+      <c r="N150" t="s">
+        <v>829</v>
+      </c>
+      <c r="O150" t="s">
+        <v>830</v>
+      </c>
+      <c r="U150" t="s">
+        <v>40</v>
+      </c>
+      <c r="V150" t="s">
+        <v>40</v>
+      </c>
+      <c r="W150" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>831</v>
+      </c>
+      <c r="B151" t="s">
+        <v>832</v>
+      </c>
+      <c r="C151" t="s">
+        <v>833</v>
+      </c>
+      <c r="D151" t="s">
+        <v>834</v>
+      </c>
+      <c r="E151" t="s">
+        <v>37</v>
+      </c>
+      <c r="H151" t="s">
+        <v>45</v>
+      </c>
+      <c r="I151" t="s">
+        <v>39</v>
+      </c>
+      <c r="M151" t="s">
+        <v>46</v>
+      </c>
+      <c r="N151" t="s">
+        <v>52</v>
+      </c>
+      <c r="U151" t="s">
+        <v>835</v>
+      </c>
+      <c r="V151" t="s">
+        <v>46</v>
+      </c>
+      <c r="W151" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>836</v>
+      </c>
+      <c r="B152" t="s">
+        <v>837</v>
+      </c>
+      <c r="C152" t="s">
+        <v>838</v>
+      </c>
+      <c r="D152" t="s">
+        <v>839</v>
+      </c>
+      <c r="E152" t="s">
+        <v>37</v>
+      </c>
+      <c r="H152" t="s">
+        <v>45</v>
+      </c>
+      <c r="I152" t="s">
+        <v>137</v>
+      </c>
+      <c r="M152" t="s">
+        <v>37</v>
+      </c>
+      <c r="P152" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>137</v>
+      </c>
+      <c r="U152" t="s">
+        <v>46</v>
+      </c>
+      <c r="V152" t="s">
+        <v>46</v>
+      </c>
+      <c r="X152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>840</v>
+      </c>
+      <c r="B153" t="s">
+        <v>841</v>
+      </c>
+      <c r="C153" t="s">
+        <v>842</v>
+      </c>
+      <c r="D153" t="s">
+        <v>843</v>
+      </c>
+      <c r="E153" t="s">
+        <v>70</v>
+      </c>
+      <c r="J153" t="s">
+        <v>844</v>
+      </c>
+      <c r="K153" t="s">
+        <v>45</v>
+      </c>
+      <c r="L153" t="s">
+        <v>27</v>
+      </c>
+      <c r="M153" t="s">
+        <v>70</v>
+      </c>
+      <c r="R153" t="s">
+        <v>845</v>
+      </c>
+      <c r="U153" t="s">
+        <v>771</v>
+      </c>
+      <c r="V153" t="s">
+        <v>771</v>
+      </c>
+      <c r="W153" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>846</v>
+      </c>
+      <c r="B154" t="s">
+        <v>847</v>
+      </c>
+      <c r="C154" t="s">
+        <v>848</v>
+      </c>
+      <c r="D154" t="s">
+        <v>849</v>
+      </c>
+      <c r="E154" t="s">
+        <v>37</v>
+      </c>
+      <c r="H154" t="s">
+        <v>45</v>
+      </c>
+      <c r="I154" t="s">
+        <v>39</v>
+      </c>
+      <c r="M154" t="s">
+        <v>37</v>
+      </c>
+      <c r="P154" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>39</v>
+      </c>
+      <c r="U154" t="s">
+        <v>46</v>
+      </c>
+      <c r="V154" t="s">
+        <v>46</v>
+      </c>
+      <c r="W154" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>850</v>
+      </c>
+      <c r="B155" t="s">
+        <v>851</v>
+      </c>
+      <c r="C155" t="s">
+        <v>852</v>
+      </c>
+      <c r="D155" t="s">
+        <v>853</v>
+      </c>
+      <c r="E155" t="s">
+        <v>37</v>
+      </c>
+      <c r="H155" t="s">
+        <v>45</v>
+      </c>
+      <c r="I155" t="s">
+        <v>27</v>
+      </c>
+      <c r="M155" t="s">
+        <v>854</v>
+      </c>
+      <c r="N155" t="s">
+        <v>173</v>
+      </c>
+      <c r="O155" t="s">
+        <v>27</v>
+      </c>
+      <c r="U155" t="s">
+        <v>40</v>
+      </c>
+      <c r="V155" t="s">
+        <v>40</v>
+      </c>
+      <c r="W155" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>855</v>
+      </c>
+      <c r="B156" t="s">
+        <v>856</v>
+      </c>
+      <c r="C156" t="s">
+        <v>857</v>
+      </c>
+      <c r="D156" t="s">
+        <v>858</v>
+      </c>
+      <c r="E156" t="s">
+        <v>70</v>
+      </c>
+      <c r="J156" t="s">
+        <v>46</v>
+      </c>
+      <c r="M156" t="s">
+        <v>46</v>
+      </c>
+      <c r="N156" t="s">
+        <v>52</v>
+      </c>
+      <c r="U156" t="s">
+        <v>40</v>
+      </c>
+      <c r="V156" t="s">
+        <v>46</v>
+      </c>
+      <c r="W156" t="s">
+        <v>32</v>
+      </c>
+      <c r="X156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>859</v>
+      </c>
+      <c r="B157" t="s">
+        <v>860</v>
+      </c>
+      <c r="C157" t="s">
+        <v>861</v>
+      </c>
+      <c r="D157" t="s">
+        <v>862</v>
+      </c>
+      <c r="E157" t="s">
+        <v>37</v>
+      </c>
+      <c r="H157" t="s">
+        <v>164</v>
+      </c>
+      <c r="M157" t="s">
+        <v>37</v>
+      </c>
+      <c r="P157" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>282</v>
+      </c>
+      <c r="U157" t="s">
+        <v>40</v>
+      </c>
+      <c r="V157" t="s">
+        <v>40</v>
+      </c>
+      <c r="W157" t="s">
+        <v>2</v>
+      </c>
+      <c r="X157" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>864</v>
+      </c>
+      <c r="B158" t="s">
+        <v>865</v>
+      </c>
+      <c r="C158" t="s">
+        <v>866</v>
+      </c>
+      <c r="D158" t="s">
+        <v>867</v>
+      </c>
+      <c r="E158" t="s">
+        <v>37</v>
+      </c>
+      <c r="H158" t="s">
+        <v>45</v>
+      </c>
+      <c r="I158" t="s">
+        <v>137</v>
+      </c>
+      <c r="M158" t="s">
+        <v>37</v>
+      </c>
+      <c r="P158" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>137</v>
+      </c>
+      <c r="U158" t="s">
+        <v>868</v>
+      </c>
+      <c r="V158" t="s">
+        <v>868</v>
+      </c>
+      <c r="W158" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
